--- a/REGULAR/OJT/GATPANDAN, DOLORES.xlsx
+++ b/REGULAR/OJT/GATPANDAN, DOLORES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27339F-F8B4-4C8B-A523-1418F4207B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,12 +259,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/24,31/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1125,7 +1130,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1173,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1237,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1297,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1363,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1426,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1524,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1583,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1648,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1691,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1766,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1952,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2018,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2076,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2142,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2198,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2273,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2316,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2382,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2438,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2599,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,25 +2665,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2690,13 +2695,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2705,14 +2710,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3016,7 +3021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3026,7 +3031,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3034,34 +3039,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3087,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3100,7 +3105,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3118,7 +3123,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3126,7 +3131,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3139,7 +3144,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3156,7 +3161,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3200,7 +3205,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.75</v>
+        <v>75.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3210,12 +3215,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.75</v>
+        <v>71.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3237,7 +3242,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42370</v>
       </c>
@@ -3255,7 +3260,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>42401</v>
@@ -3274,7 +3279,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A88" si="0">EDATE(A12,1)</f>
         <v>42430</v>
@@ -3293,7 +3298,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>42461</v>
@@ -3312,7 +3317,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>42491</v>
@@ -3331,7 +3336,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>42522</v>
@@ -3350,7 +3355,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>42552</v>
@@ -3369,7 +3374,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>42583</v>
@@ -3388,7 +3393,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>42614</v>
@@ -3409,7 +3414,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>42644</v>
@@ -3430,7 +3435,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>42675</v>
@@ -3451,7 +3456,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A21,1)</f>
         <v>42705</v>
@@ -3472,7 +3477,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>49</v>
       </c>
@@ -3494,7 +3499,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>42736</v>
@@ -3515,7 +3520,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>42767</v>
@@ -3536,7 +3541,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -3557,7 +3562,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -3578,7 +3583,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -3605,7 +3610,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -3626,7 +3631,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -3647,7 +3652,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A30,1)</f>
         <v>42948</v>
@@ -3668,7 +3673,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -3689,7 +3694,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -3710,7 +3715,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -3731,7 +3736,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -3758,7 +3763,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3778,7 +3783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -3798,7 +3803,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>48</v>
       </c>
@@ -3820,7 +3825,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A35,1)</f>
         <v>43101</v>
@@ -3845,7 +3850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -3866,7 +3871,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -3887,7 +3892,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -3908,7 +3913,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -3929,7 +3934,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>43252</v>
@@ -3956,7 +3961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>52</v>
@@ -3976,7 +3981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>43282</v>
@@ -3997,7 +4002,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -4018,7 +4023,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>43344</v>
@@ -4039,7 +4044,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -4066,7 +4071,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -4087,7 +4092,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -4112,7 +4117,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>47</v>
       </c>
@@ -4134,7 +4139,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>43466</v>
@@ -4155,7 +4160,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -4176,7 +4181,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -4203,7 +4208,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -4224,7 +4229,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -4245,7 +4250,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -4266,7 +4271,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>43647</v>
@@ -4293,7 +4298,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>59</v>
@@ -4315,7 +4320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>43678</v>
@@ -4336,7 +4341,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -4357,7 +4362,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -4384,7 +4389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -4405,7 +4410,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -4430,7 +4435,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>46</v>
       </c>
@@ -4452,7 +4457,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>43831</v>
@@ -4473,7 +4478,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -4494,7 +4499,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -4515,7 +4520,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -4536,7 +4541,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>43952</v>
@@ -4557,7 +4562,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -4584,7 +4589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -4611,7 +4616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>58</v>
@@ -4631,7 +4636,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>44044</v>
@@ -4652,7 +4657,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>44075</v>
@@ -4673,7 +4678,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -4694,7 +4699,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -4715,7 +4720,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -4736,7 +4741,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>45</v>
       </c>
@@ -4758,7 +4763,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>44197</v>
@@ -4779,7 +4784,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -4800,7 +4805,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -4821,7 +4826,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -4842,7 +4847,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -4863,7 +4868,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -4884,7 +4889,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" ref="A87" si="1">EDATE(A86,1)</f>
         <v>44378</v>
@@ -4905,7 +4910,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -4926,7 +4931,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A107" si="2">EDATE(A88,1)</f>
         <v>44440</v>
@@ -4947,7 +4952,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="2"/>
         <v>44470</v>
@@ -4974,7 +4979,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="2"/>
         <v>44501</v>
@@ -5001,7 +5006,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>67</v>
@@ -5023,7 +5028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>44531</v>
@@ -5044,7 +5049,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>44</v>
       </c>
@@ -5066,7 +5071,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>44562</v>
@@ -5093,7 +5098,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -5115,7 +5120,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>44593</v>
@@ -5136,7 +5141,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="2"/>
         <v>44621</v>
@@ -5163,7 +5168,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="2"/>
         <v>44652</v>
@@ -5184,7 +5189,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="2"/>
         <v>44682</v>
@@ -5211,7 +5216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="2"/>
         <v>44713</v>
@@ -5232,7 +5237,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="2"/>
         <v>44743</v>
@@ -5253,7 +5258,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="2"/>
         <v>44774</v>
@@ -5274,7 +5279,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="2"/>
         <v>44805</v>
@@ -5295,7 +5300,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="2"/>
         <v>44835</v>
@@ -5316,7 +5321,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="2"/>
         <v>44866</v>
@@ -5337,7 +5342,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="2"/>
         <v>44896</v>
@@ -5364,7 +5369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>70</v>
       </c>
@@ -5382,7 +5387,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44927</v>
       </c>
@@ -5406,7 +5411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44958</v>
       </c>
@@ -5426,139 +5431,157 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>44986</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45017</v>
       </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45047</v>
       </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45078</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45108</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45139</v>
       </c>
       <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45170</v>
       </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45200</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>2</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -5568,9 +5591,11 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K118" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45231</v>
       </c>
@@ -5588,7 +5613,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45261</v>
       </c>
@@ -5606,7 +5631,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45292</v>
       </c>
@@ -5624,7 +5649,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45323</v>
       </c>
@@ -5642,7 +5667,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45352</v>
       </c>
@@ -5660,7 +5685,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45383</v>
       </c>
@@ -5678,7 +5703,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45413</v>
       </c>
@@ -5696,7 +5721,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45444</v>
       </c>
@@ -5714,7 +5739,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45474</v>
       </c>
@@ -5732,7 +5757,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45505</v>
       </c>
@@ -5750,7 +5775,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45536</v>
       </c>
@@ -5768,7 +5793,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45566</v>
       </c>
@@ -5786,7 +5811,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45597</v>
       </c>
@@ -5804,7 +5829,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45627</v>
       </c>
@@ -5822,7 +5847,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45658</v>
       </c>
@@ -5840,7 +5865,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45689</v>
       </c>
@@ -5858,7 +5883,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45717</v>
       </c>
@@ -5876,7 +5901,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45748</v>
       </c>
@@ -5894,7 +5919,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5910,7 +5935,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5926,7 +5951,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5942,7 +5967,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5958,7 +5983,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5974,7 +5999,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5990,7 +6015,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
       <c r="B143" s="15"/>
       <c r="C143" s="42"/>
@@ -6021,10 +6046,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6047,7 +6072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -6055,21 +6080,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -6082,7 +6107,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6111,7 +6136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -6135,17 +6160,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -6169,10 +6194,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>131.5</v>
+        <v>147</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -6200,7 +6225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6226,7 +6251,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6252,7 +6277,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6278,7 +6303,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6304,7 +6329,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6330,7 +6355,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6356,7 +6381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6382,7 +6407,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6402,7 +6427,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6422,7 +6447,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6442,7 +6467,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6463,7 +6488,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6484,7 +6509,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6505,7 +6530,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6526,7 +6551,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6547,7 +6572,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6568,7 +6593,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6589,7 +6614,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6610,7 +6635,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6631,7 +6656,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6652,7 +6677,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6673,7 +6698,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6694,7 +6719,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6715,7 +6740,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6736,7 +6761,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6757,7 +6782,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6778,7 +6803,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6799,7 +6824,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6820,7 +6845,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6841,7 +6866,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6862,7 +6887,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6871,7 +6896,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6880,7 +6905,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6889,7 +6914,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6898,7 +6923,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6907,7 +6932,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6916,7 +6941,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6925,7 +6950,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6934,7 +6959,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6943,7 +6968,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6952,7 +6977,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6961,7 +6986,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6970,7 +6995,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6979,7 +7004,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6988,7 +7013,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6997,7 +7022,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7006,7 +7031,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7015,7 +7040,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7024,7 +7049,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7033,7 +7058,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7042,7 +7067,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7051,7 +7076,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7060,7 +7085,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7069,7 +7094,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7078,7 +7103,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7087,7 +7112,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7096,7 +7121,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7105,7 +7130,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7114,7 +7139,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7123,7 +7148,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
